--- a/Model_01.xlsx
+++ b/Model_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\ajay_\Test-repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A89DF49-9CF4-4566-91C9-4B05CA596FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556E0915-B383-4318-AE35-4927C3A925B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C91BF87-C4BE-4ADC-900F-7539BA8717AE}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,8 +434,8 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f>B2+B3</f>
-        <v>3</v>
+        <f>(B2+B3)*3</f>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
